--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026709.92306262</v>
+        <v>4019692.90817091</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.8091300798611</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>67.83111579845468</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>117.3399053404217</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>221.8540401264043</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.1743669966224</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>88.25490562468525</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>26.500865682495</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>37.07115149839495</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>151.5218864977496</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>73.50096938092156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>15.59458547084319</v>
       </c>
     </row>
     <row r="14">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>121.0690913161818</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>157.7704051790697</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.1648127494126</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>183.1270525074863</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>190.1791179615109</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.04562296803822</v>
+        <v>33.35146980185926</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>132.9309640680683</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>111.9959424663976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>216.1212311409555</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>136.1615536360958</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.70370085329691</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>122.3137095599312</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.464602812336</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>2373.948324228038</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2373.948324228038</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.22335213854</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2418.025411522045</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2086.962524178474</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2086.962524178474</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2086.962524178474</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.823192202662</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>261.3917961488083</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>261.3917961488083</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W7" t="n">
-        <v>261.3917961488083</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X7" t="n">
-        <v>261.3917961488083</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1172.829108994408</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.42894905853</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>431.1223972961881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>575.076573602647</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227924</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169056</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5363,19 +5363,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>481.4617027208818</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>481.4617027208818</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4617027208818</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>481.4617027208818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1228.477121484304</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>939.3484826978621</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188992</v>
+        <v>684.6639944919752</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188992</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="X16" t="n">
-        <v>481.4617027208818</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.4617027208818</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>627.7391298106755</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203137</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227851</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4132.064625307332</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262065</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.210845262961</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>883.1107261099196</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>655.1211752119023</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,43 +6217,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>2736.186707734713</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>2982.951835641177</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3969.076348919114</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C28" t="n">
-        <v>3800.140165991208</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D28" t="n">
-        <v>3650.023526578872</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E28" t="n">
-        <v>3650.023526578872</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F28" t="n">
-        <v>3650.023526578872</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>4660.934562929845</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>4660.934562929845</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W28" t="n">
-        <v>4371.517392892884</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X28" t="n">
-        <v>4371.517392892884</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y28" t="n">
-        <v>4150.724813749354</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3890.044176674692</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4615.505768497261</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4326.377129710819</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4071.692641504932</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4071.692641504932</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4071.692641504932</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>4071.692641504932</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>339.7502131046252</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>642.0559188686032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,22 +6952,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4218.844873839597</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4218.844873839597</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4218.844873839597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4218.844873839597</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4202.604530983119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4033.668348055212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4033.668348055212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3885.755254472819</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4612.242546711375</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>4612.242546711375</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4612.242546711375</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4612.242546711375</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4384.252995813358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4384.252995813358</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452863</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>3959.29649689213</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768801</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>763.2307201361762</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C46" t="n">
-        <v>665.6859735286132</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D46" t="n">
-        <v>515.5693341162774</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E46" t="n">
-        <v>367.6562405338843</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F46" t="n">
-        <v>220.766293035974</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>124.3400780863224</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>308.1251096272034</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>94.13752431970488</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735861</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711621</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>213.2603911806617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928298</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.6230805871097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100641</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>104.8749102765749</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>392.1113620226433</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>213.0220289556694</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>202.9900678812516</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.35195670674942</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>63.77715587931954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.26914989715657</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>103.3959458291047</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>96.34388037508012</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>126.4479454953394</v>
+        <v>133.1420986615183</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>88.61659699032091</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>174.5270558701934</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36.0164121828725</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>85.38600742229343</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>146.0059545357402</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>44.17985890344634</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016471</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.062818503904494e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15045.66962143908</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15045.66962143908</v>
+      </c>
+      <c r="L4" t="n">
         <v>15045.66962143909</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>15045.66962143909</v>
       </c>
-      <c r="K4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15045.6696214391</v>
-      </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.23415810792</v>
+        <v>-49612.23415810757</v>
       </c>
       <c r="C6" t="n">
-        <v>540355.6450564368</v>
+        <v>540355.6450564369</v>
       </c>
       <c r="D6" t="n">
-        <v>540355.6450564368</v>
+        <v>540355.6450564369</v>
       </c>
       <c r="E6" t="n">
-        <v>110762.1814545954</v>
+        <v>109787.5901948737</v>
       </c>
       <c r="F6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717694</v>
       </c>
       <c r="G6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.62667177</v>
       </c>
       <c r="H6" t="n">
-        <v>635922.2179314913</v>
+        <v>634947.6266717702</v>
       </c>
       <c r="I6" t="n">
-        <v>635922.2179314917</v>
+        <v>634947.6266717698</v>
       </c>
       <c r="J6" t="n">
-        <v>459498.9987388988</v>
+        <v>458524.4074791772</v>
       </c>
       <c r="K6" t="n">
-        <v>635922.2179314917</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="L6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="M6" t="n">
-        <v>501121.2026976544</v>
+        <v>500146.6114379328</v>
       </c>
       <c r="N6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="O6" t="n">
-        <v>635922.2179314917</v>
+        <v>634947.62667177</v>
       </c>
       <c r="P6" t="n">
-        <v>635922.2179314917</v>
+        <v>634947.6266717701</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.92471158361951</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>218.6918825381363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.59046473184</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>29.37012738188503</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>7.135435262428473</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>163.8827376991428</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>338.7720260885126</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>130.238650760656</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>134.7599877442281</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,31 +31928,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>457.5346514843354</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>515.2185245587281</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>534.0986420439142</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>343.3952292757293</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951474</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303305</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>363.8358297686009</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221091</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>350.1985191750489</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>438.0705020605305</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>702.5357390731095</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019692.90817091</v>
+        <v>4024632.171019941</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9332843063845</v>
+        <v>270.6226856612334</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>117.3399053404217</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>311.4936872159399</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>88.25490562468525</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>44.77059692366127</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.07115149839495</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>26.3288200405002</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>73.66308659887137</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.59458547084319</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>157.7704051790697</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>33.35146980185926</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>143.2925104849746</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>865.7094167416178</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>447.7456086398047</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626212</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626212</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>320.3920853967602</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>851.2698358107937</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>440.2839310211861</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>426.360526959777</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>99.16580699577986</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1992.620445413571</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1992.620445413571</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>431.1223972961881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,19 +5053,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>616.5439301336032</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>466.4272907212675</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>318.5141971388744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>171.624249640964</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150545</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170372</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="14">
@@ -5266,37 +5266,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1228.477121484304</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>939.3484826978621</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>684.6639944919752</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>395.2468244550147</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>395.2468244550147</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5743,34 +5743,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5840,13 +5840,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,28 +6165,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,49 +6211,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324578</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954972</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954972</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,19 +6639,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,22 +6952,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,19 +7350,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.0685056491545</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1323227212476</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1323227212476</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1323227212476</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>410.1323227212476</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>241.9570010410683</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X46" t="n">
-        <v>981.5095496229244</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.7169704793943</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028835</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>277.6717966208063</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>277.6717966208068</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711621</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928298</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,13 +10831,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627436</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100641</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>92.83048186450621</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.9900678812516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>86.12206049300397</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63.77715587931954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>133.1420986615183</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.621317882561556</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>285.7585771924304</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.213501647</v>
-      </c>
       <c r="G2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="H2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.2135016476</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="L2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26441,22 +26441,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.23415810757</v>
+        <v>-49612.23415810746</v>
       </c>
       <c r="C6" t="n">
         <v>540355.6450564369</v>
       </c>
       <c r="D6" t="n">
-        <v>540355.6450564369</v>
+        <v>540355.645056437</v>
       </c>
       <c r="E6" t="n">
-        <v>109787.5901948737</v>
+        <v>110664.7223286229</v>
       </c>
       <c r="F6" t="n">
-        <v>634947.6266717694</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="G6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="H6" t="n">
-        <v>634947.6266717702</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="I6" t="n">
-        <v>634947.6266717698</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="J6" t="n">
-        <v>458524.4074791772</v>
+        <v>459401.5396129264</v>
       </c>
       <c r="K6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="L6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="M6" t="n">
-        <v>500146.6114379328</v>
+        <v>501023.7435716822</v>
       </c>
       <c r="N6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055192</v>
       </c>
       <c r="O6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="P6" t="n">
-        <v>634947.6266717701</v>
+        <v>635824.7588055196</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.98948845797261</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>35.43826180874041</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>217.3206500666357</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>264.59046473184</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>74.74425144011366</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>163.8827376991428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>107.1607193212</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.238650760656</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>2.793929914414125</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>588.0961736712726</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>588.096173671273</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303305</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221091</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>438.0705020605305</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
